--- a/data/excel/DayLabolList.xlsx
+++ b/data/excel/DayLabolList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\DLM\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DDB759B-86BF-4332-AFBE-38E9075706EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3957D6E-846C-43A1-BE88-46C5D06548EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{31F5324A-97A3-488A-A86B-3FBD2CADD731}"/>
+    <workbookView xWindow="3270" yWindow="2790" windowWidth="28800" windowHeight="15345" xr2:uid="{31F5324A-97A3-488A-A86B-3FBD2CADD731}"/>
   </bookViews>
   <sheets>
     <sheet name="일용직목록" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -63,16 +62,7 @@
     <t>전화번호</t>
   </si>
   <si>
-    <t>계좌번호</t>
-  </si>
-  <si>
-    <t>Column7</t>
-  </si>
-  <si>
     <t>주소</t>
-  </si>
-  <si>
-    <t>기본급일당</t>
   </si>
   <si>
     <t>비고</t>
@@ -3693,6 +3683,18 @@
   </si>
   <si>
     <t>경상남도 진주시 진주대로 1208번길 20, 3동 105호(상봉한주타운)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일당</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4060,10 +4062,10 @@
     <tableColumn id="3" xr3:uid="{A4C0D1B3-50C8-41FD-8ABC-A0E5750B0B11}" uniqueName="3" name="주민등록번호" queryTableFieldId="3" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{62985019-7F7C-4BDD-A94A-E5FEE60958EF}" uniqueName="4" name="나이" queryTableFieldId="4" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{A6A29FD1-DE0E-47C0-882B-BC9BF5458B47}" uniqueName="5" name="전화번호" queryTableFieldId="5" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{791797DC-C2A7-42D3-A6C3-ADD885FF5A39}" uniqueName="6" name="계좌번호" queryTableFieldId="6" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{9B809106-553C-4EBA-837E-0FFD58381760}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{791797DC-C2A7-42D3-A6C3-ADD885FF5A39}" uniqueName="6" name="은행명" queryTableFieldId="6" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{9B809106-553C-4EBA-837E-0FFD58381760}" uniqueName="7" name="계좌번호" queryTableFieldId="7" dataDxfId="4"/>
     <tableColumn id="8" xr3:uid="{23D2BA93-9982-4590-A194-B2CD770D3FA3}" uniqueName="8" name="주소" queryTableFieldId="8" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{F1404B4D-82D5-4BF8-868C-9FF32AFC6895}" uniqueName="9" name="기본급일당" queryTableFieldId="9" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{F1404B4D-82D5-4BF8-868C-9FF32AFC6895}" uniqueName="9" name="일당" queryTableFieldId="9" dataDxfId="2"/>
     <tableColumn id="10" xr3:uid="{B4A114C0-AD97-45EF-B360-2D5875F06DFC}" uniqueName="10" name="비고" queryTableFieldId="10" dataDxfId="1"/>
     <tableColumn id="1" xr3:uid="{E738E289-91A0-4F6A-8982-33E9AAC138CA}" uniqueName="1" name="생년월일" queryTableFieldId="11" dataDxfId="0">
       <calculatedColumnFormula>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</calculatedColumnFormula>
@@ -4373,8 +4375,8 @@
   <dimension ref="A1:K220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B189" sqref="B189"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4408,46 +4410,46 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>63</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>63</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K2" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -4456,26 +4458,26 @@
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>65</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>65</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="I3" s="1">
         <v>120000</v>
@@ -4487,23 +4489,23 @@
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>64</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>64</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="K4" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -4512,20 +4514,20 @@
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>82</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>82</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="K5" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -4534,29 +4536,29 @@
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>64</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>64</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="K6" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -4565,26 +4567,26 @@
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>79</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D7" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>79</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="K7" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -4593,26 +4595,26 @@
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>78</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D8" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>78</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="K8" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -4621,29 +4623,29 @@
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>57</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>57</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K9" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -4652,26 +4654,26 @@
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>56</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>56</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="K10" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -4680,26 +4682,26 @@
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>82</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D11" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>82</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="K11" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -4708,23 +4710,23 @@
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>80</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>80</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="K12" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -4733,26 +4735,26 @@
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>62</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>62</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="K13" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -4761,26 +4763,26 @@
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>64</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D14" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>64</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="K14" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -4789,17 +4791,17 @@
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="str">
         <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
         <v>민증없음</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K15" s="2" t="str">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -4808,32 +4810,32 @@
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>56</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D16" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>56</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="I16" s="1">
         <v>150000</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K16" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -4842,29 +4844,29 @@
     </row>
     <row r="17" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>65</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>65</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="K17" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -4873,20 +4875,20 @@
     </row>
     <row r="18" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D18" s="1">
         <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
         <v>64</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K18" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -4895,29 +4897,29 @@
     </row>
     <row r="19" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>66</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>66</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="K19" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -4926,26 +4928,26 @@
     </row>
     <row r="20" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>70</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D20" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>70</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="K20" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -4954,26 +4956,26 @@
     </row>
     <row r="21" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>71</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D21" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>71</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="K21" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -4982,26 +4984,26 @@
     </row>
     <row r="22" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>64</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="D22" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>64</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="I22" s="1">
         <v>200000</v>
@@ -5013,29 +5015,29 @@
     </row>
     <row r="23" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>70</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>70</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="J23" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K23" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5044,26 +5046,26 @@
     </row>
     <row r="24" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>61</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D24" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>61</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="K24" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5072,26 +5074,26 @@
     </row>
     <row r="25" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>65</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="D25" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>65</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="I25" s="1">
         <v>100000</v>
@@ -5103,29 +5105,29 @@
     </row>
     <row r="26" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>82</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>82</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="K26" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5134,29 +5136,29 @@
     </row>
     <row r="27" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>70</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D27" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>70</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K27" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5165,29 +5167,29 @@
     </row>
     <row r="28" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>65</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D28" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>65</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="J28" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K28" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5196,32 +5198,32 @@
     </row>
     <row r="29" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>73</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="D29" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>73</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="I29" s="1">
         <v>80000</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K29" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5230,23 +5232,23 @@
     </row>
     <row r="30" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>78</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D30" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>78</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="K30" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5255,26 +5257,26 @@
     </row>
     <row r="31" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>80</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="D31" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>80</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="K31" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5283,26 +5285,26 @@
     </row>
     <row r="32" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>59</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D32" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>59</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="K32" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5311,26 +5313,26 @@
     </row>
     <row r="33" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>61</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="D33" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>61</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="K33" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5339,26 +5341,26 @@
     </row>
     <row r="34" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>78</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D34" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>78</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="J34" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K34" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5367,26 +5369,26 @@
     </row>
     <row r="35" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>74</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="D35" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>74</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="K35" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5395,29 +5397,29 @@
     </row>
     <row r="36" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>77</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D36" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>77</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="J36" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K36" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5426,26 +5428,26 @@
     </row>
     <row r="37" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>74</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="D37" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>74</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="K37" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5454,26 +5456,26 @@
     </row>
     <row r="38" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>72</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D38" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>72</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="K38" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5482,23 +5484,23 @@
     </row>
     <row r="39" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>56</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D39" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>56</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="K39" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5507,29 +5509,29 @@
     </row>
     <row r="40" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D40" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>74</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D40" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>74</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="J40" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K40" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5538,29 +5540,29 @@
     </row>
     <row r="41" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D41" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>50</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D41" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>50</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="J41" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K41" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5569,26 +5571,26 @@
     </row>
     <row r="42" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>68</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="D42" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>68</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="K42" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5597,26 +5599,26 @@
     </row>
     <row r="43" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>35</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="D43" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>35</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="K43" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5625,29 +5627,29 @@
     </row>
     <row r="44" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D44" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>65</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D44" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>65</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="K44" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5656,26 +5658,26 @@
     </row>
     <row r="45" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>66</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="D45" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>66</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="I45" s="1">
         <v>200000</v>
@@ -5687,23 +5689,23 @@
     </row>
     <row r="46" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D46" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>70</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D46" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>70</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="K46" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5712,29 +5714,29 @@
     </row>
     <row r="47" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>54</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="D47" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>54</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="I47" s="1">
         <v>150000</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K47" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5743,26 +5745,26 @@
     </row>
     <row r="48" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D48" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>70</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="D48" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>70</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="K48" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5771,23 +5773,23 @@
     </row>
     <row r="49" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D49" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>58</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="D49" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>58</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="K49" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5796,29 +5798,29 @@
     </row>
     <row r="50" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D50" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>82</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D50" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>82</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="J50" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K50" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5827,29 +5829,29 @@
     </row>
     <row r="51" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D51" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>64</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D51" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>64</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="K51" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5858,23 +5860,23 @@
     </row>
     <row r="52" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D52" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>69</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D52" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>69</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="K52" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5883,17 +5885,17 @@
     </row>
     <row r="53" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D53" s="1" t="str">
         <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
         <v>민증없음</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K53" s="2" t="str">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5902,26 +5904,26 @@
     </row>
     <row r="54" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D54" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>73</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="D54" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>73</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="K54" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5930,26 +5932,26 @@
     </row>
     <row r="55" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D55" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>66</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="D55" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>66</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="K55" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5958,26 +5960,26 @@
     </row>
     <row r="56" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D56" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>60</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="D56" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>60</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="K56" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -5986,26 +5988,26 @@
     </row>
     <row r="57" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D57" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>60</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="D57" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>60</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="K57" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6014,29 +6016,29 @@
     </row>
     <row r="58" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D58" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>61</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D58" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>61</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="J58" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K58" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6045,26 +6047,26 @@
     </row>
     <row r="59" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D59" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>51</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D59" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>51</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="J59" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K59" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6073,23 +6075,23 @@
     </row>
     <row r="60" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D60" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>63</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D60" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>63</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="K60" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6098,29 +6100,29 @@
     </row>
     <row r="61" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D61" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>65</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D61" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>65</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="J61" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K61" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6129,26 +6131,26 @@
     </row>
     <row r="62" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D62" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>60</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="D62" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>60</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="K62" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6157,29 +6159,29 @@
     </row>
     <row r="63" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D63" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>72</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D63" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>72</v>
-      </c>
-      <c r="E63" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="K63" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6188,29 +6190,29 @@
     </row>
     <row r="64" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D64" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>65</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D64" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>65</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="J64" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K64" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6219,23 +6221,23 @@
     </row>
     <row r="65" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D65" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>60</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D65" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>60</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="K65" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6244,29 +6246,29 @@
     </row>
     <row r="66" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D66" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>67</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D66" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>67</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="J66" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K66" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6275,29 +6277,29 @@
     </row>
     <row r="67" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D67" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>67</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D67" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>67</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="J67" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K67" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6306,23 +6308,23 @@
     </row>
     <row r="68" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D68" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>78</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="D68" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>78</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="K68" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6331,26 +6333,26 @@
     </row>
     <row r="69" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D69" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>54</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="D69" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>54</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="K69" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6359,23 +6361,23 @@
     </row>
     <row r="70" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D70" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>70</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D70" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>70</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="K70" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6384,26 +6386,26 @@
     </row>
     <row r="71" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B71" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D71" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>67</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="D71" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>67</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="K71" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6412,26 +6414,26 @@
     </row>
     <row r="72" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D72" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>82</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D72" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>82</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="J72" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K72" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6440,26 +6442,26 @@
     </row>
     <row r="73" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D73" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>69</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="D73" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>69</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="K73" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6468,26 +6470,26 @@
     </row>
     <row r="74" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B74" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D74" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>69</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="D74" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>69</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="K74" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6496,26 +6498,26 @@
     </row>
     <row r="75" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D75" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>64</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="H75" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="D75" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>64</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="K75" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6524,29 +6526,29 @@
     </row>
     <row r="76" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D76" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>57</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D76" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>57</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>377</v>
-      </c>
       <c r="J76" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K76" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6555,29 +6557,29 @@
     </row>
     <row r="77" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D77" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>75</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D77" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>75</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="J77" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K77" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6586,29 +6588,29 @@
     </row>
     <row r="78" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D78" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>35</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D78" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>35</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="J78" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K78" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6617,26 +6619,26 @@
     </row>
     <row r="79" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D79" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>60</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="H79" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="D79" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>60</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="K79" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6645,29 +6647,29 @@
     </row>
     <row r="80" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B80" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D80" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>74</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D80" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>74</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="J80" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K80" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6676,26 +6678,26 @@
     </row>
     <row r="81" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D81" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>82</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D81" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>82</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="J81" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K81" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6704,17 +6706,17 @@
     </row>
     <row r="82" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B82" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D82" s="1">
         <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
         <v>70</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K82" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6723,17 +6725,17 @@
     </row>
     <row r="83" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D83" s="1">
         <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
         <v>84</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K83" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6742,26 +6744,26 @@
     </row>
     <row r="84" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B84" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D84" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>73</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D84" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>73</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="K84" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6770,26 +6772,26 @@
     </row>
     <row r="85" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B85" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D85" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>81</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D85" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>81</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>415</v>
-      </c>
       <c r="J85" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K85" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6798,26 +6800,26 @@
     </row>
     <row r="86" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B86" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D86" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>71</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="D86" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>71</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="K86" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6826,26 +6828,26 @@
     </row>
     <row r="87" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B87" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D87" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>58</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="D87" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>58</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="K87" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6854,26 +6856,26 @@
     </row>
     <row r="88" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D88" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>60</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D88" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>60</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="H88" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="K88" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6882,26 +6884,26 @@
     </row>
     <row r="89" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B89" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D89" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>68</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D89" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>68</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="J89" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="K89" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6910,23 +6912,23 @@
     </row>
     <row r="90" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B90" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D90" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>56</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="H90" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D90" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>56</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="K90" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6935,26 +6937,26 @@
     </row>
     <row r="91" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D91" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>59</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="G91" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D91" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>59</v>
-      </c>
-      <c r="E91" s="1" t="s">
+      <c r="H91" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="K91" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6963,26 +6965,26 @@
     </row>
     <row r="92" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D92" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>69</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="H92" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="D92" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>69</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="K92" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -6991,23 +6993,23 @@
     </row>
     <row r="93" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D93" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>65</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H93" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D93" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>65</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="K93" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7016,17 +7018,17 @@
     </row>
     <row r="94" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D94" s="1">
         <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
         <v>58</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K94" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7035,17 +7037,17 @@
     </row>
     <row r="95" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B95" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D95" s="1">
         <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
         <v>27</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K95" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7054,23 +7056,23 @@
     </row>
     <row r="96" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B96" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D96" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>68</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D96" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>68</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="K96" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7079,23 +7081,23 @@
     </row>
     <row r="97" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D97" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>65</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H97" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D97" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>65</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="K97" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7104,23 +7106,23 @@
     </row>
     <row r="98" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D98" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>73</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H98" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D98" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>73</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="K98" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7129,26 +7131,26 @@
     </row>
     <row r="99" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D99" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>64</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="H99" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="D99" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>64</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>475</v>
       </c>
       <c r="K99" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7157,26 +7159,26 @@
     </row>
     <row r="100" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B100" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D100" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>67</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="D100" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>67</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="K100" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7185,20 +7187,20 @@
     </row>
     <row r="101" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D101" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>63</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="H101" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="D101" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>63</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="K101" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7207,23 +7209,23 @@
     </row>
     <row r="102" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B102" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D102" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>55</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H102" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="D102" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>55</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="K102" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7232,26 +7234,26 @@
     </row>
     <row r="103" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B103" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D103" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>56</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="G103" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="D103" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>56</v>
-      </c>
-      <c r="E103" s="1" t="s">
+      <c r="H103" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>494</v>
       </c>
       <c r="K103" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7260,26 +7262,26 @@
     </row>
     <row r="104" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B104" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D104" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>56</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="H104" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="D104" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>56</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="K104" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7288,20 +7290,20 @@
     </row>
     <row r="105" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B105" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D105" s="1" t="str">
         <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
         <v>민증없음</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="K105" s="2" t="str">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7310,26 +7312,26 @@
     </row>
     <row r="106" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B106" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D106" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>66</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="G106" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="D106" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>66</v>
-      </c>
-      <c r="E106" s="1" t="s">
+      <c r="H106" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>508</v>
       </c>
       <c r="K106" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7338,26 +7340,26 @@
     </row>
     <row r="107" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B107" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D107" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>60</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G107" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="H107" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="D107" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>60</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>513</v>
       </c>
       <c r="K107" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7366,26 +7368,26 @@
     </row>
     <row r="108" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B108" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D108" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>75</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="H108" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="D108" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>75</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>518</v>
       </c>
       <c r="K108" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7394,23 +7396,23 @@
     </row>
     <row r="109" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B109" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D109" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>66</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="H109" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="D109" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>66</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>522</v>
       </c>
       <c r="K109" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7419,26 +7421,26 @@
     </row>
     <row r="110" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B110" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D110" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>62</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D110" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>62</v>
-      </c>
-      <c r="E110" s="1" t="s">
+      <c r="H110" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="K110" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7447,26 +7449,26 @@
     </row>
     <row r="111" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B111" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D111" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>59</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="H111" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="D111" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>59</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="K111" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7475,26 +7477,26 @@
     </row>
     <row r="112" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B112" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D112" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>71</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="H112" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="D112" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>71</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>538</v>
       </c>
       <c r="K112" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7503,26 +7505,26 @@
     </row>
     <row r="113" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B113" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D113" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>67</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G113" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="H113" s="4" t="s">
         <v>540</v>
-      </c>
-      <c r="D113" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>67</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>543</v>
       </c>
       <c r="K113" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7531,26 +7533,26 @@
     </row>
     <row r="114" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B114" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D114" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>74</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G114" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="H114" s="4" t="s">
         <v>545</v>
-      </c>
-      <c r="D114" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>74</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>548</v>
       </c>
       <c r="K114" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7559,26 +7561,26 @@
     </row>
     <row r="115" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B115" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D115" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>62</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="H115" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="D115" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>62</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>553</v>
       </c>
       <c r="K115" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7587,17 +7589,17 @@
     </row>
     <row r="116" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B116" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D116" s="1">
         <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
         <v>56</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="K116" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7606,26 +7608,26 @@
     </row>
     <row r="117" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B117" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D117" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>63</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="G117" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="D117" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>63</v>
-      </c>
-      <c r="E117" s="1" t="s">
+      <c r="H117" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="K117" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7635,26 +7637,26 @@
     <row r="118" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A118" s="6"/>
       <c r="B118" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="D118" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>59</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G118" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="H118" s="6" t="s">
         <v>564</v>
-      </c>
-      <c r="D118" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>59</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="H118" s="6" t="s">
-        <v>567</v>
       </c>
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
@@ -7665,26 +7667,26 @@
     </row>
     <row r="119" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B119" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D119" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>55</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G119" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="H119" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="D119" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>55</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="K119" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7694,30 +7696,30 @@
     <row r="120" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A120" s="6"/>
       <c r="B120" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="D120" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>66</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G120" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="H120" s="6" t="s">
         <v>574</v>
-      </c>
-      <c r="D120" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>66</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="H120" s="6" t="s">
-        <v>577</v>
       </c>
       <c r="I120" s="6"/>
       <c r="J120" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="K120" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7726,23 +7728,23 @@
     </row>
     <row r="121" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B121" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D121" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>66</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="H121" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="D121" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>66</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>582</v>
       </c>
       <c r="K121" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7751,17 +7753,17 @@
     </row>
     <row r="122" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B122" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D122" s="1" t="str">
         <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
         <v>민증없음</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="K122" s="2" t="str">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7770,29 +7772,29 @@
     </row>
     <row r="123" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B123" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D123" s="1" t="str">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>민증없음</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="H123" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="D123" s="1" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
-      <c r="E123" s="1" t="s">
+      <c r="J123" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="K123" s="2" t="str">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7802,30 +7804,30 @@
     <row r="124" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D124" s="1" t="str">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>민증없음</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G124" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="H124" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="D124" s="1" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>595</v>
       </c>
       <c r="I124" s="1"/>
       <c r="J124" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="K124" s="2" t="str">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7835,10 +7837,10 @@
     <row r="125" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D125" s="1">
         <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
@@ -7846,17 +7848,17 @@
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="K125" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7866,30 +7868,30 @@
     <row r="126" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D126" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>53</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="H126" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="D126" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>53</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>606</v>
       </c>
       <c r="I126" s="1"/>
       <c r="J126" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="K126" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7899,29 +7901,29 @@
     <row r="127" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="D127" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>66</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G127" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="H127" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="D127" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>66</v>
-      </c>
-      <c r="E127" s="7" t="s">
+      <c r="J127" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="J127" s="7" t="s">
-        <v>613</v>
       </c>
       <c r="K127" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7931,29 +7933,29 @@
     <row r="128" spans="1:11" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="D128" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>57</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G128" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="C128" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="D128" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>57</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>617</v>
-      </c>
       <c r="H128" s="7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="K128" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7962,30 +7964,30 @@
     </row>
     <row r="129" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B129" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="D129" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>55</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G129" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="H129" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="D129" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>55</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="H129" s="7" t="s">
-        <v>622</v>
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="K129" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -7994,30 +7996,30 @@
     </row>
     <row r="130" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B130" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="D130" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>30</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G130" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="H130" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="D130" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>30</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>627</v>
       </c>
       <c r="I130" s="7"/>
       <c r="J130" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="K130" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8026,30 +8028,30 @@
     </row>
     <row r="131" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="D131" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>57</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G131" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="H131" s="7" t="s">
         <v>629</v>
-      </c>
-      <c r="D131" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>57</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="F131" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="H131" s="7" t="s">
-        <v>632</v>
       </c>
       <c r="I131" s="7"/>
       <c r="J131" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="K131" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8058,29 +8060,29 @@
     </row>
     <row r="132" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B132" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="D132" s="1" t="str">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>민증없음</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G132" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="H132" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="D132" s="1" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
-      <c r="E132" s="7" t="s">
+      <c r="J132" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="H132" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="J132" s="7" t="s">
-        <v>638</v>
       </c>
       <c r="K132" s="2" t="str">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8089,26 +8091,26 @@
     </row>
     <row r="133" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B133" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="D133" s="1" t="str">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>민증없음</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G133" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="H133" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="D133" s="1" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
-      <c r="F133" s="1" t="s">
+      <c r="J133" s="7" t="s">
         <v>641</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="H133" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="J133" s="7" t="s">
-        <v>644</v>
       </c>
       <c r="K133" s="2" t="str">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8117,23 +8119,23 @@
     </row>
     <row r="134" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B134" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="D134" s="1" t="str">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>민증없음</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="H134" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="J134" s="7" t="s">
         <v>646</v>
-      </c>
-      <c r="D134" s="1" t="str">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>민증없음</v>
-      </c>
-      <c r="E134" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="H134" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="J134" s="7" t="s">
-        <v>649</v>
       </c>
       <c r="K134" s="2" t="str">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8142,23 +8144,23 @@
     </row>
     <row r="135" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="D135" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>79</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="H135" s="9" t="s">
         <v>650</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="D135" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>79</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G135" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="H135" s="9" t="s">
-        <v>653</v>
       </c>
       <c r="I135" s="9"/>
       <c r="K135" s="2">
@@ -8168,23 +8170,23 @@
     </row>
     <row r="136" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B136" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="D136" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>61</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G136" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="H136" s="7" t="s">
         <v>655</v>
-      </c>
-      <c r="D136" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>61</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="G136" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="H136" s="7" t="s">
-        <v>658</v>
       </c>
       <c r="K136" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8193,23 +8195,23 @@
     </row>
     <row r="137" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B137" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="D137" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>68</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="H137" s="7" t="s">
         <v>659</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="D137" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>68</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="H137" s="7" t="s">
-        <v>662</v>
       </c>
       <c r="K137" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8218,26 +8220,26 @@
     </row>
     <row r="138" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B138" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="D138" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>75</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="H138" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="J138" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="D138" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>75</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="H138" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>667</v>
       </c>
       <c r="K138" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8246,29 +8248,29 @@
     </row>
     <row r="139" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="D139" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>69</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F139" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="G139" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="D139" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>69</v>
-      </c>
-      <c r="E139" s="1" t="s">
+      <c r="H139" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="F139" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="H139" s="7" t="s">
-        <v>673</v>
-      </c>
       <c r="J139" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K139" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8277,29 +8279,29 @@
     </row>
     <row r="140" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B140" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="D140" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>63</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="G140" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="H140" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="D140" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>63</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="H140" s="7" t="s">
-        <v>678</v>
-      </c>
       <c r="J140" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K140" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8308,26 +8310,26 @@
     </row>
     <row r="141" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B141" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="D141" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>78</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="H141" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="C141" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="D141" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>78</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="H141" s="7" t="s">
-        <v>682</v>
-      </c>
       <c r="J141" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K141" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8336,29 +8338,29 @@
     </row>
     <row r="142" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B142" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="D142" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>77</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G142" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="H142" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="D142" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>77</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="H142" s="7" t="s">
-        <v>687</v>
-      </c>
       <c r="J142" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K142" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8367,29 +8369,29 @@
     </row>
     <row r="143" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B143" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="D143" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>78</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="G143" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="H143" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="D143" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>78</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="H143" s="7" t="s">
-        <v>692</v>
-      </c>
       <c r="J143" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K143" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8398,26 +8400,26 @@
     </row>
     <row r="144" spans="2:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B144" s="7" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D144" s="1">
         <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
         <v>68</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G144" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="K144" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8426,23 +8428,23 @@
     </row>
     <row r="145" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B145" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="D145" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>59</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G145" s="7" t="s">
         <v>696</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="D145" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>59</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>699</v>
       </c>
       <c r="K145" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8452,30 +8454,30 @@
     <row r="146" spans="1:11" s="13" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="D146" s="10">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>69</v>
+      </c>
+      <c r="E146" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="G146" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="C146" s="11" t="s">
+      <c r="H146" s="10" t="s">
         <v>701</v>
-      </c>
-      <c r="D146" s="10">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>69</v>
-      </c>
-      <c r="E146" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="F146" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G146" s="11" t="s">
-        <v>703</v>
-      </c>
-      <c r="H146" s="10" t="s">
-        <v>704</v>
       </c>
       <c r="I146" s="10"/>
       <c r="J146" s="10" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="K146" s="12">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8484,29 +8486,29 @@
     </row>
     <row r="147" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B147" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="D147" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>47</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G147" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="C147" s="7" t="s">
+      <c r="H147" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="D147" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>47</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G147" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>710</v>
-      </c>
       <c r="J147" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="K147" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8515,29 +8517,29 @@
     </row>
     <row r="148" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B148" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="D148" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>74</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G148" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="H148" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="D148" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>74</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G148" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>715</v>
-      </c>
       <c r="J148" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="K148" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8546,20 +8548,20 @@
     </row>
     <row r="149" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B149" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D149" s="1" t="str">
         <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
         <v>민증없음</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="K149" s="2" t="str">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8568,29 +8570,29 @@
     </row>
     <row r="150" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B150" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D150" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>64</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G150" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="H150" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="D150" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>64</v>
-      </c>
-      <c r="E150" s="1" t="s">
+      <c r="J150" s="1" t="s">
         <v>721</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="J150" s="1" t="s">
-        <v>724</v>
       </c>
       <c r="K150" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8599,26 +8601,26 @@
     </row>
     <row r="151" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B151" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D151" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>65</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G151" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="H151" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="D151" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>65</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>729</v>
       </c>
       <c r="K151" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8627,26 +8629,26 @@
     </row>
     <row r="152" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B152" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D152" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>67</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G152" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="H152" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="D152" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>67</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>734</v>
       </c>
       <c r="K152" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8655,26 +8657,26 @@
     </row>
     <row r="153" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B153" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="D153" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>70</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G153" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="H153" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="D153" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>70</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>739</v>
       </c>
       <c r="K153" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8683,25 +8685,25 @@
     </row>
     <row r="154" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B154" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D154" s="1">
         <v>61</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="K154" s="2">
         <v>22646</v>
@@ -8709,25 +8711,25 @@
     </row>
     <row r="155" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B155" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D155" s="1">
         <v>65</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="K155" s="2">
         <v>20912</v>
@@ -8735,26 +8737,26 @@
     </row>
     <row r="156" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B156" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D156" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>57</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G156" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="H156" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="D156" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>57</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>754</v>
       </c>
       <c r="K156" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8763,17 +8765,17 @@
     </row>
     <row r="157" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B157" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D157" s="1">
         <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
         <v>74</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="K157" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8782,17 +8784,17 @@
     </row>
     <row r="158" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B158" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D158" s="1">
         <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
         <v>64</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="K158" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8801,26 +8803,26 @@
     </row>
     <row r="159" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B159" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D159" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>55</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G159" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="H159" s="1" t="s">
         <v>762</v>
-      </c>
-      <c r="D159" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>55</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>765</v>
       </c>
       <c r="K159" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8829,23 +8831,23 @@
     </row>
     <row r="160" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B160" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D160" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>73</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="G160" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="H160" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="D160" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>73</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>770</v>
       </c>
       <c r="K160" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8854,7 +8856,7 @@
     </row>
     <row r="161" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B161" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D161" s="1">
         <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
@@ -8866,26 +8868,26 @@
     </row>
     <row r="162" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B162" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D162" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>55</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G162" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="H162" s="1" t="s">
         <v>773</v>
-      </c>
-      <c r="D162" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>55</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>776</v>
       </c>
       <c r="K162" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8895,30 +8897,30 @@
     <row r="163" spans="1:11" s="13" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="D163" s="10">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>33</v>
+      </c>
+      <c r="E163" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G163" s="10" t="s">
         <v>777</v>
       </c>
-      <c r="C163" s="10" t="s">
+      <c r="H163" s="10" t="s">
         <v>778</v>
-      </c>
-      <c r="D163" s="10">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>33</v>
-      </c>
-      <c r="E163" s="10" t="s">
-        <v>779</v>
-      </c>
-      <c r="F163" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="G163" s="10" t="s">
-        <v>780</v>
-      </c>
-      <c r="H163" s="10" t="s">
-        <v>781</v>
       </c>
       <c r="I163" s="10"/>
       <c r="J163" s="10" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="K163" s="12">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8928,10 +8930,10 @@
     <row r="164" spans="1:11" s="13" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D164" s="10" t="str">
         <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
@@ -8950,26 +8952,26 @@
     </row>
     <row r="165" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B165" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D165" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>68</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="H165" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="J165" s="1" t="s">
         <v>786</v>
-      </c>
-      <c r="D165" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>68</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="J165" s="1" t="s">
-        <v>789</v>
       </c>
       <c r="K165" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -8978,26 +8980,26 @@
     </row>
     <row r="166" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B166" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D166" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>63</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="H166" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="D166" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>63</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>793</v>
-      </c>
       <c r="J166" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="K166" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9006,26 +9008,26 @@
     </row>
     <row r="167" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B167" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D167" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>67</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="H167" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="D167" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>67</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>797</v>
-      </c>
       <c r="J167" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="K167" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9034,29 +9036,29 @@
     </row>
     <row r="168" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B168" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D168" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>64</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G168" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="H168" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="D168" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>64</v>
-      </c>
-      <c r="E168" s="1" t="s">
+      <c r="J168" s="1" t="s">
         <v>800</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="J168" s="1" t="s">
-        <v>803</v>
       </c>
       <c r="K168" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9065,29 +9067,29 @@
     </row>
     <row r="169" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B169" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="D169" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>65</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G169" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="H169" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="D169" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>65</v>
-      </c>
-      <c r="E169" s="1" t="s">
+      <c r="J169" s="1" t="s">
         <v>806</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="J169" s="1" t="s">
-        <v>809</v>
       </c>
       <c r="K169" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9096,26 +9098,26 @@
     </row>
     <row r="170" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B170" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D170" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>32</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G170" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="H170" s="1" t="s">
         <v>811</v>
-      </c>
-      <c r="D170" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>32</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>814</v>
       </c>
       <c r="K170" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9124,26 +9126,26 @@
     </row>
     <row r="171" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B171" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="D171" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>57</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G171" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="H171" s="1" t="s">
         <v>816</v>
-      </c>
-      <c r="D171" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>57</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="H171" s="1" t="s">
-        <v>819</v>
       </c>
       <c r="K171" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9152,26 +9154,26 @@
     </row>
     <row r="172" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B172" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D172" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>62</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G172" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="D172" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>62</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>823</v>
-      </c>
       <c r="H172" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="K172" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9180,29 +9182,29 @@
     </row>
     <row r="173" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B173" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D173" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>55</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G173" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="H173" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="D173" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>55</v>
-      </c>
-      <c r="E173" s="1" t="s">
+      <c r="J173" s="1" t="s">
         <v>826</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="J173" s="1" t="s">
-        <v>829</v>
       </c>
       <c r="K173" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9211,26 +9213,26 @@
     </row>
     <row r="174" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B174" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D174" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>63</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G174" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="H174" s="1" t="s">
         <v>831</v>
-      </c>
-      <c r="D174" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>63</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>834</v>
       </c>
       <c r="K174" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9239,20 +9241,20 @@
     </row>
     <row r="175" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B175" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="D175" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>52</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="J175" s="1" t="s">
         <v>835</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="D175" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>52</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="J175" s="1" t="s">
-        <v>838</v>
       </c>
       <c r="K175" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9261,20 +9263,20 @@
     </row>
     <row r="176" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B176" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D176" s="1">
         <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
         <v>45</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="K176" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9284,26 +9286,26 @@
     <row r="177" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A177" s="7"/>
       <c r="B177" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D177" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>64</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G177" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="H177" s="1" t="s">
         <v>843</v>
-      </c>
-      <c r="D177" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>64</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>846</v>
       </c>
       <c r="K177" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9313,29 +9315,29 @@
     <row r="178" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A178" s="7"/>
       <c r="B178" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D178" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>66</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="F178" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="G178" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="D178" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>66</v>
-      </c>
-      <c r="E178" s="1" t="s">
+      <c r="H178" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="F178" s="1" t="s">
+      <c r="J178" s="1" t="s">
         <v>850</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="J178" s="1" t="s">
-        <v>853</v>
       </c>
       <c r="K178" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9345,29 +9347,29 @@
     <row r="179" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A179" s="7"/>
       <c r="B179" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D179" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>55</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G179" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="H179" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="D179" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>55</v>
-      </c>
-      <c r="E179" s="1" t="s">
+      <c r="J179" s="1" t="s">
         <v>856</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="H179" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="J179" s="1" t="s">
-        <v>859</v>
       </c>
       <c r="K179" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9377,10 +9379,10 @@
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="7"/>
       <c r="B180" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D180" s="1">
         <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
@@ -9388,17 +9390,17 @@
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="I180" s="1"/>
       <c r="J180" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="K180" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9408,26 +9410,26 @@
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="7"/>
       <c r="B181" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="D181" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>68</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G181" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="H181" s="1" t="s">
         <v>866</v>
-      </c>
-      <c r="D181" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>68</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>869</v>
       </c>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
@@ -9439,26 +9441,26 @@
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="D182" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>70</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G182" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="H182" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="D182" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>70</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>874</v>
       </c>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
@@ -9470,26 +9472,26 @@
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="D183" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>79</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G183" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="H183" s="1" t="s">
         <v>876</v>
-      </c>
-      <c r="D183" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>79</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>879</v>
       </c>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
@@ -9501,26 +9503,26 @@
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="D184" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>71</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G184" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="H184" s="1" t="s">
         <v>881</v>
-      </c>
-      <c r="D184" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>71</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G184" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>884</v>
       </c>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
@@ -9532,30 +9534,30 @@
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="D185" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>32</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G185" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="H185" s="1" t="s">
         <v>886</v>
-      </c>
-      <c r="D185" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>32</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G185" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>889</v>
       </c>
       <c r="I185" s="1"/>
       <c r="J185" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="K185" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9565,30 +9567,30 @@
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D186" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>61</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G186" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="H186" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="D186" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>61</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="H186" s="1" t="s">
-        <v>895</v>
       </c>
       <c r="I186" s="1"/>
       <c r="J186" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="K186" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9598,30 +9600,30 @@
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="D187" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>62</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G187" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="H187" s="1" t="s">
         <v>897</v>
-      </c>
-      <c r="D187" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>62</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G187" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="H187" s="1" t="s">
-        <v>900</v>
       </c>
       <c r="I187" s="1"/>
       <c r="J187" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="K187" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9631,30 +9633,30 @@
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="D188" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>45</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G188" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="H188" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="D188" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>45</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G188" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="H188" s="1" t="s">
-        <v>905</v>
       </c>
       <c r="I188" s="1"/>
       <c r="J188" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="K188" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9664,30 +9666,30 @@
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D189" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>58</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="F189" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="G189" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="D189" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>58</v>
-      </c>
-      <c r="E189" s="1" t="s">
+      <c r="H189" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="G189" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="H189" s="1" t="s">
-        <v>911</v>
       </c>
       <c r="I189" s="1"/>
       <c r="J189" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="K189" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9697,30 +9699,30 @@
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D190" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>68</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G190" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="H190" s="1" t="s">
         <v>913</v>
-      </c>
-      <c r="D190" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>68</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="H190" s="1" t="s">
-        <v>916</v>
       </c>
       <c r="I190" s="1"/>
       <c r="J190" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="K190" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9730,30 +9732,30 @@
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="D191" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>69</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G191" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="H191" s="1" t="s">
         <v>918</v>
-      </c>
-      <c r="D191" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>69</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="H191" s="1" t="s">
-        <v>921</v>
       </c>
       <c r="I191" s="1"/>
       <c r="J191" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="K191" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9763,30 +9765,30 @@
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="D192" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>66</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G192" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="H192" s="1" t="s">
         <v>923</v>
-      </c>
-      <c r="D192" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>66</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>925</v>
-      </c>
-      <c r="H192" s="1" t="s">
-        <v>926</v>
       </c>
       <c r="I192" s="1"/>
       <c r="J192" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="K192" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9796,30 +9798,30 @@
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="D193" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>56</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G193" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="H193" s="1" t="s">
         <v>928</v>
-      </c>
-      <c r="D193" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>56</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="H193" s="1" t="s">
-        <v>931</v>
       </c>
       <c r="I193" s="1"/>
       <c r="J193" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="K193" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9829,30 +9831,30 @@
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="D194" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>72</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="G194" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="H194" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="D194" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>72</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="G194" s="1" t="s">
-        <v>935</v>
-      </c>
-      <c r="H194" s="1" t="s">
-        <v>936</v>
       </c>
       <c r="I194" s="1"/>
       <c r="J194" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="K194" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9862,30 +9864,30 @@
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="D195" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>29</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G195" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="H195" s="1" t="s">
         <v>938</v>
-      </c>
-      <c r="D195" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>29</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="H195" s="1" t="s">
-        <v>941</v>
       </c>
       <c r="I195" s="1"/>
       <c r="J195" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="K195" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9895,30 +9897,30 @@
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="D196" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>58</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G196" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="H196" s="1" t="s">
         <v>944</v>
-      </c>
-      <c r="D196" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>58</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G196" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="H196" s="1" t="s">
-        <v>947</v>
       </c>
       <c r="I196" s="1"/>
       <c r="J196" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="K196" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9928,30 +9930,30 @@
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="D197" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>56</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G197" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="D197" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>56</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G197" s="1" t="s">
-        <v>951</v>
-      </c>
       <c r="H197" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="I197" s="1"/>
       <c r="J197" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="K197" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9961,30 +9963,30 @@
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="D198" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>55</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G198" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="H198" s="1" t="s">
         <v>953</v>
-      </c>
-      <c r="D198" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>55</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G198" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="H198" s="1" t="s">
-        <v>956</v>
       </c>
       <c r="I198" s="1"/>
       <c r="J198" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="K198" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -9994,30 +9996,30 @@
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="D199" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>47</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G199" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="H199" s="1" t="s">
         <v>958</v>
-      </c>
-      <c r="D199" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>47</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G199" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="H199" s="1" t="s">
-        <v>961</v>
       </c>
       <c r="I199" s="1"/>
       <c r="J199" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="K199" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -10027,30 +10029,30 @@
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D200" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>51</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G200" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="H200" s="1" t="s">
         <v>963</v>
-      </c>
-      <c r="D200" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>51</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G200" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="H200" s="1" t="s">
-        <v>966</v>
       </c>
       <c r="I200" s="1"/>
       <c r="J200" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="K200" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -10060,30 +10062,30 @@
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="D201" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>55</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G201" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="H201" s="1" t="s">
         <v>968</v>
-      </c>
-      <c r="D201" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>55</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G201" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="H201" s="1" t="s">
-        <v>971</v>
       </c>
       <c r="I201" s="1"/>
       <c r="J201" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="K201" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -10093,30 +10095,30 @@
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="D202" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>32</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G202" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="H202" s="1" t="s">
         <v>973</v>
-      </c>
-      <c r="D202" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>32</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G202" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="H202" s="1" t="s">
-        <v>976</v>
       </c>
       <c r="I202" s="1"/>
       <c r="J202" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="K202" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
@@ -10126,30 +10128,30 @@
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="D203" s="1">
+        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
+        <v>59</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G203" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="H203" s="1" t="s">
         <v>978</v>
-      </c>
-      <c r="D203" s="1">
-        <f ca="1">IFERROR(YEAR(TODAY())-YEAR(일용직목록__2[[#This Row],[생년월일]]),"민증없음")</f>
-        <v>59</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G203" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="H203" s="1" t="s">
-        <v>981</v>
       </c>
       <c r="I203" s="1"/>
       <c r="J203" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="K203" s="2">
         <f>IFERROR(DATE(IF(LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)&gt;"30", LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+1900, LEFT(일용직목록__2[[#This Row],[주민등록번호]],2)+2000), MID(일용직목록__2[[#This Row],[주민등록번호]], 3, 2), MID(일용직목록__2[[#This Row],[주민등록번호]], 5, 2)), "민증없음")</f>
